--- a/AutomatedPrice/PriceIncreases/Chevron BigC Prices Aug '21_.xlsx
+++ b/AutomatedPrice/PriceIncreases/Chevron BigC Prices Aug '21_.xlsx
@@ -62,6 +62,22 @@
     <definedName name="QBREPORTTYPE" localSheetId="0">404</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">0</definedName>
     <definedName name="QBSTARTDATE" localSheetId="0">20210721</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">info!$1:$1</definedName>
   </definedNames>

--- a/AutomatedPrice/PriceIncreases/Chevron BigC Prices Aug '21_.xlsx
+++ b/AutomatedPrice/PriceIncreases/Chevron BigC Prices Aug '21_.xlsx
@@ -62,6 +62,8 @@
     <definedName name="QBREPORTTYPE" localSheetId="0">404</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">0</definedName>
     <definedName name="QBSTARTDATE" localSheetId="0">20210721</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">info!$B$1:$D$132</definedName>
